--- a/Tests/1/Test_SubjMultiRun1.xlsx
+++ b/Tests/1/Test_SubjMultiRun1.xlsx
@@ -2270,8 +2270,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,40 +2891,40 @@
         <v>37</v>
       </c>
       <c r="C14" s="20">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="D14" s="41">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="E14" s="41">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="F14" s="41">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="G14" s="41">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="H14" s="41">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="I14" s="41">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="J14" s="41">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="K14" s="41">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="L14" s="41">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="M14" s="41">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="N14" s="41">
-        <v>10</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2933,40 +2933,40 @@
         <v>38</v>
       </c>
       <c r="C15" s="20">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D15" s="41">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E15" s="41">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F15" s="41">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G15" s="41">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H15" s="41">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I15" s="41">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J15" s="41">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K15" s="41">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="L15" s="41">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M15" s="41">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N15" s="41">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -3355,40 +3355,40 @@
         <v>37</v>
       </c>
       <c r="C23" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K23" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L23" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -3819,40 +3819,40 @@
         <v>37</v>
       </c>
       <c r="C32" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
